--- a/GUI + Reviews/202503/Euronext World.xlsx
+++ b/GUI + Reviews/202503/Euronext World.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\Data input files\Factset Data\Calculation file\202503\Preliminary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202503\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B34CFC9C-84C5-48DB-AE17-DED9F74AA88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBABBE40-67B0-403D-BF5C-C870BACDD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="17640" xr2:uid="{A565B4D7-AAB9-4ACB-84AE-66E5ED11F5EA}"/>
   </bookViews>
@@ -13956,20 +13956,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F82E90EB-E3C4-4DA3-A67C-4CF06300E151}" name="Universe" displayName="Universe" ref="A1:K1501" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F82E90EB-E3C4-4DA3-A67C-4CF06300E151}" name="Universe" displayName="Universe" ref="A1:K1501" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K1501" xr:uid="{F82E90EB-E3C4-4DA3-A67C-4CF06300E151}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F30BE892-44C3-40C2-86C5-D8FB7EE6CE66}" name="Rank" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{17A554DC-104E-40DA-8C76-CF482D5E7080}" name="Ticker" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{DF8C5996-6E85-4971-A3E5-E5107B165E19}" name="Name" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B162FEC6-7BF5-4531-9AB8-D033AB087E57}" name="ISIN" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{179E6805-B1AE-4DA6-99C8-A61C183BBA72}" name="MIC" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8B1DB0F5-BD7A-4697-A751-601405660756}" name="NOSH" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{9278F1C8-E4F1-4846-83EF-E61E80CEAAEA}" name="Price (EUR) " dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7EA6CB1C-AEF8-445F-9ECF-925E1CBC67CF}" name="Currency (Local)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{495089E7-E204-470C-80AE-44A73C7D75CC}" name="Mcap in EUR" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{122635B4-1DA1-4354-B3B9-2A6FDE3E2252}" name="index" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{53F2A285-56EB-4997-8931-7E715AA36AFE}" name="3 months ADTV" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F30BE892-44C3-40C2-86C5-D8FB7EE6CE66}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{17A554DC-104E-40DA-8C76-CF482D5E7080}" name="Ticker" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DF8C5996-6E85-4971-A3E5-E5107B165E19}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B162FEC6-7BF5-4531-9AB8-D033AB087E57}" name="ISIN" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{179E6805-B1AE-4DA6-99C8-A61C183BBA72}" name="MIC" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{8B1DB0F5-BD7A-4697-A751-601405660756}" name="NOSH" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{9278F1C8-E4F1-4846-83EF-E61E80CEAAEA}" name="Price (EUR) " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7EA6CB1C-AEF8-445F-9ECF-925E1CBC67CF}" name="Currency (Local)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{495089E7-E204-470C-80AE-44A73C7D75CC}" name="Mcap in EUR" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{122635B4-1DA1-4354-B3B9-2A6FDE3E2252}" name="index" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{53F2A285-56EB-4997-8931-7E715AA36AFE}" name="3 months ADTV" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14294,7 +14294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98404E7-87C0-43B4-9A85-B33B0FA6FBC2}">
   <dimension ref="A1:K1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="H479" sqref="H479"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31060,14 +31062,14 @@
       <c r="F479" s="1">
         <v>185270000</v>
       </c>
-      <c r="G479" s="1" t="e">
-        <v>#N/A</v>
+      <c r="G479" s="1">
+        <v>36.54</v>
       </c>
       <c r="H479" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I479" s="1" t="e">
-        <v>#N/A</v>
+      <c r="I479" s="1">
+        <v>6769765800</v>
       </c>
       <c r="J479" s="1" t="s">
         <v>16</v>
